--- a/我的文档/（实用）CAD常用快捷键.xlsx
+++ b/我的文档/（实用）CAD常用快捷键.xlsx
@@ -21,7 +21,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="435" uniqueCount="304">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="437" uniqueCount="306">
   <si>
     <t>序号</t>
   </si>
@@ -291,6 +291,12 @@
     <t>连续标注</t>
   </si>
   <si>
+    <t>CTRL+</t>
+  </si>
+  <si>
+    <t>显示左侧工具栏</t>
+  </si>
+  <si>
     <t>P</t>
   </si>
   <si>
@@ -370,14 +376,6 @@
   </si>
   <si>
     <r>
-      <rPr>
-        <b/>
-        <sz val="11"/>
-        <color rgb="FFFF0000"/>
-        <rFont val="宋体"/>
-        <charset val="134"/>
-        <scheme val="minor"/>
-      </rPr>
       <t>注意：</t>
     </r>
     <r>
@@ -964,10 +962,10 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <numFmts count="4">
+    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="44" formatCode="_ &quot;￥&quot;* #,##0.00_ ;_ &quot;￥&quot;* \-#,##0.00_ ;_ &quot;￥&quot;* &quot;-&quot;??_ ;_ @_ "/>
     <numFmt numFmtId="41" formatCode="_ * #,##0_ ;_ * \-#,##0_ ;_ * &quot;-&quot;_ ;_ @_ "/>
     <numFmt numFmtId="43" formatCode="_ * #,##0.00_ ;_ * \-#,##0.00_ ;_ * &quot;-&quot;??_ ;_ @_ "/>
-    <numFmt numFmtId="42" formatCode="_ &quot;￥&quot;* #,##0_ ;_ &quot;￥&quot;* \-#,##0_ ;_ &quot;￥&quot;* &quot;-&quot;_ ;_ @_ "/>
   </numFmts>
   <fonts count="22">
     <font>
@@ -1002,6 +1000,14 @@
     </font>
     <font>
       <b/>
+      <sz val="15"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
       <sz val="18"/>
       <color theme="3"/>
       <name val="宋体"/>
@@ -1009,11 +1015,11 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
+      <b/>
+      <sz val="13"/>
+      <color theme="3"/>
       <name val="宋体"/>
-      <charset val="0"/>
+      <charset val="134"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1039,31 +1045,15 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="13"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
+      <color rgb="FF9C6500"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <sz val="11"/>
-      <color rgb="FF9C6500"/>
+      <color theme="0"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1076,16 +1066,16 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <b/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
+      <u/>
       <sz val="11"/>
-      <color rgb="FFFA7D00"/>
+      <color rgb="FF0000FF"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1107,6 +1097,13 @@
       <scheme val="minor"/>
     </font>
     <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
@@ -1116,23 +1113,24 @@
     </font>
     <font>
       <b/>
-      <sz val="15"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
       <b/>
       <sz val="11"/>
       <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1165,19 +1163,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.599993896298105"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
+        <fgColor theme="6" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1189,49 +1181,19 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor rgb="FFFFEB9C"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.399975585192419"/>
+        <fgColor theme="4" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1249,7 +1211,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor rgb="FFC6EFCE"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1261,7 +1265,67 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.799981688894314"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="7" tint="0.599993896298105"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1273,73 +1337,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="9"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFC6EFCE"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1616,6 +1614,15 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1635,30 +1642,6 @@
       <diagonal/>
     </border>
     <border>
-      <left style="double">
-        <color rgb="FF3F3F3F"/>
-      </left>
-      <right style="double">
-        <color rgb="FF3F3F3F"/>
-      </right>
-      <top style="double">
-        <color rgb="FF3F3F3F"/>
-      </top>
-      <bottom style="double">
-        <color rgb="FF3F3F3F"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
         <color rgb="FF7F7F7F"/>
       </left>
@@ -1670,6 +1653,15 @@
       </top>
       <bottom style="thin">
         <color rgb="FF7F7F7F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1698,6 +1690,21 @@
       <diagonal/>
     </border>
     <border>
+      <left style="double">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="double">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="double">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="double">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
       <left/>
       <right/>
       <top style="thin">
@@ -1708,15 +1715,6 @@
       </bottom>
       <diagonal/>
     </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1725,10 +1723,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="17" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1737,137 +1735,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="22" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="0" borderId="24" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="20" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="20" borderId="25" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="11" borderId="23" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
   </cellStyleXfs>
-  <cellXfs count="30">
+  <cellXfs count="32">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1919,11 +1917,17 @@
     <xf numFmtId="0" fontId="1" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1">
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
@@ -2011,6 +2015,11 @@
     <cellStyle name="60% - 强调文字颜色 6" xfId="48" builtinId="52"/>
   </cellStyles>
   <tableStyles count="0" defaultTableStyle="TableStyleMedium2" defaultPivotStyle="PivotStyleLight16"/>
+  <colors>
+    <mruColors>
+      <color rgb="00FF0000"/>
+    </mruColors>
+  </colors>
   <extLst>
     <ext xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" uri="{EB79DEF2-80B8-43e5-95BD-54CBDDF9020C}">
       <x14:slicerStyles defaultSlicerStyle="SlicerStyleLight1"/>
@@ -2306,12 +2315,12 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:L28"/>
+  <dimension ref="A1:L27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N3" sqref="N3"/>
+      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2326,7 +2335,7 @@
     <col min="8" max="8" width="25.375" customWidth="1"/>
     <col min="9" max="9" width="5.375" customWidth="1"/>
     <col min="10" max="10" width="7.375" customWidth="1"/>
-    <col min="11" max="11" width="12.875" customWidth="1"/>
+    <col min="11" max="11" width="15" customWidth="1"/>
     <col min="12" max="12" width="5.375" customWidth="1"/>
   </cols>
   <sheetData>
@@ -2361,7 +2370,7 @@
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="26" t="s">
+      <c r="K1" s="28" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -2372,14 +2381,14 @@
       <c r="A2" s="5">
         <v>1</v>
       </c>
-      <c r="B2" s="6" t="s">
+      <c r="B2" s="17" t="s">
         <v>4</v>
       </c>
       <c r="C2" s="7" t="s">
         <v>5</v>
       </c>
       <c r="D2" s="8"/>
-      <c r="E2" s="17">
+      <c r="E2" s="18">
         <v>21</v>
       </c>
       <c r="F2" s="6" t="s">
@@ -2389,7 +2398,7 @@
         <v>7</v>
       </c>
       <c r="H2" s="8"/>
-      <c r="I2" s="17">
+      <c r="I2" s="18">
         <v>41</v>
       </c>
       <c r="J2" s="6" t="s">
@@ -2404,14 +2413,14 @@
       <c r="A3" s="5">
         <v>2</v>
       </c>
-      <c r="B3" s="6" t="s">
+      <c r="B3" s="17" t="s">
         <v>10</v>
       </c>
       <c r="C3" s="7" t="s">
         <v>11</v>
       </c>
       <c r="D3" s="8"/>
-      <c r="E3" s="17">
+      <c r="E3" s="18">
         <v>22</v>
       </c>
       <c r="F3" s="6" t="s">
@@ -2421,10 +2430,10 @@
         <v>13</v>
       </c>
       <c r="H3" s="8"/>
-      <c r="I3" s="17">
+      <c r="I3" s="18">
         <v>42</v>
       </c>
-      <c r="J3" s="6" t="s">
+      <c r="J3" s="17" t="s">
         <v>14</v>
       </c>
       <c r="K3" s="7" t="s">
@@ -2443,7 +2452,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="8"/>
-      <c r="E4" s="17">
+      <c r="E4" s="18">
         <v>23</v>
       </c>
       <c r="F4" s="6" t="s">
@@ -2453,10 +2462,10 @@
         <v>19</v>
       </c>
       <c r="H4" s="8"/>
-      <c r="I4" s="17">
+      <c r="I4" s="18">
         <v>43</v>
       </c>
-      <c r="J4" s="6" t="s">
+      <c r="J4" s="17" t="s">
         <v>20</v>
       </c>
       <c r="K4" s="7" t="s">
@@ -2475,7 +2484,7 @@
         <v>23</v>
       </c>
       <c r="D5" s="8"/>
-      <c r="E5" s="17">
+      <c r="E5" s="18">
         <v>24</v>
       </c>
       <c r="F5" s="6" t="s">
@@ -2485,7 +2494,7 @@
         <v>25</v>
       </c>
       <c r="H5" s="8"/>
-      <c r="I5" s="17">
+      <c r="I5" s="18">
         <v>44</v>
       </c>
       <c r="J5" s="6" t="s">
@@ -2500,14 +2509,14 @@
       <c r="A6" s="5">
         <v>5</v>
       </c>
-      <c r="B6" s="6" t="s">
+      <c r="B6" s="17" t="s">
         <v>28</v>
       </c>
       <c r="C6" s="7" t="s">
         <v>29</v>
       </c>
       <c r="D6" s="8"/>
-      <c r="E6" s="17">
+      <c r="E6" s="18">
         <v>25</v>
       </c>
       <c r="F6" s="6" t="s">
@@ -2517,10 +2526,10 @@
         <v>31</v>
       </c>
       <c r="H6" s="8"/>
-      <c r="I6" s="17">
+      <c r="I6" s="18">
         <v>45</v>
       </c>
-      <c r="J6" s="6" t="s">
+      <c r="J6" s="17" t="s">
         <v>32</v>
       </c>
       <c r="K6" s="7" t="s">
@@ -2532,26 +2541,26 @@
       <c r="A7" s="5">
         <v>6</v>
       </c>
-      <c r="B7" s="6" t="s">
+      <c r="B7" s="17" t="s">
         <v>34</v>
       </c>
       <c r="C7" s="7" t="s">
         <v>35</v>
       </c>
-      <c r="D7" s="18" t="s">
+      <c r="D7" s="19" t="s">
         <v>36</v>
       </c>
-      <c r="E7" s="17">
+      <c r="E7" s="18">
         <v>26</v>
       </c>
-      <c r="F7" s="6" t="s">
+      <c r="F7" s="17" t="s">
         <v>37</v>
       </c>
       <c r="G7" s="7" t="s">
         <v>38</v>
       </c>
       <c r="H7" s="8"/>
-      <c r="I7" s="17">
+      <c r="I7" s="18">
         <v>46</v>
       </c>
       <c r="J7" s="6" t="s">
@@ -2573,17 +2582,17 @@
         <v>42</v>
       </c>
       <c r="D8" s="8"/>
-      <c r="E8" s="17">
+      <c r="E8" s="18">
         <v>27</v>
       </c>
-      <c r="F8" s="6" t="s">
+      <c r="F8" s="17" t="s">
         <v>43</v>
       </c>
       <c r="G8" s="7" t="s">
         <v>44</v>
       </c>
       <c r="H8" s="8"/>
-      <c r="I8" s="17">
+      <c r="I8" s="18">
         <v>47</v>
       </c>
       <c r="J8" s="13" t="s">
@@ -2605,17 +2614,17 @@
         <v>48</v>
       </c>
       <c r="D9" s="8"/>
-      <c r="E9" s="17">
+      <c r="E9" s="18">
         <v>28</v>
       </c>
-      <c r="F9" s="6" t="s">
+      <c r="F9" s="17" t="s">
         <v>49</v>
       </c>
       <c r="G9" s="7" t="s">
         <v>50</v>
       </c>
       <c r="H9" s="8"/>
-      <c r="I9" s="17">
+      <c r="I9" s="18">
         <v>48</v>
       </c>
       <c r="J9" s="13" t="s">
@@ -2630,14 +2639,14 @@
       <c r="A10" s="5">
         <v>9</v>
       </c>
-      <c r="B10" s="6" t="s">
+      <c r="B10" s="17" t="s">
         <v>53</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>54</v>
       </c>
       <c r="D10" s="8"/>
-      <c r="E10" s="17">
+      <c r="E10" s="18">
         <v>29</v>
       </c>
       <c r="F10" s="6" t="s">
@@ -2647,7 +2656,7 @@
         <v>55</v>
       </c>
       <c r="H10" s="8"/>
-      <c r="I10" s="17">
+      <c r="I10" s="18">
         <v>49</v>
       </c>
       <c r="J10" s="13" t="s">
@@ -2669,7 +2678,7 @@
         <v>59</v>
       </c>
       <c r="D11" s="8"/>
-      <c r="E11" s="17">
+      <c r="E11" s="18">
         <v>30</v>
       </c>
       <c r="F11" s="6" t="s">
@@ -2681,7 +2690,7 @@
       <c r="H11" s="8" t="s">
         <v>62</v>
       </c>
-      <c r="I11" s="17">
+      <c r="I11" s="18">
         <v>50</v>
       </c>
       <c r="J11" s="6" t="s">
@@ -2703,17 +2712,17 @@
         <v>66</v>
       </c>
       <c r="D12" s="8"/>
-      <c r="E12" s="17">
+      <c r="E12" s="18">
         <v>31</v>
       </c>
-      <c r="F12" s="6" t="s">
+      <c r="F12" s="17" t="s">
         <v>67</v>
       </c>
       <c r="G12" s="7" t="s">
         <v>68</v>
       </c>
       <c r="H12" s="8"/>
-      <c r="I12" s="17">
+      <c r="I12" s="18">
         <v>51</v>
       </c>
       <c r="J12" s="13" t="s">
@@ -2728,17 +2737,17 @@
       <c r="A13" s="5">
         <v>12</v>
       </c>
-      <c r="B13" s="6" t="s">
+      <c r="B13" s="17" t="s">
         <v>71</v>
       </c>
       <c r="C13" s="7" t="s">
         <v>72</v>
       </c>
       <c r="D13" s="8"/>
-      <c r="E13" s="17">
+      <c r="E13" s="18">
         <v>32</v>
       </c>
-      <c r="F13" s="6" t="s">
+      <c r="F13" s="17" t="s">
         <v>73</v>
       </c>
       <c r="G13" s="7" t="s">
@@ -2747,10 +2756,10 @@
       <c r="H13" s="8" t="s">
         <v>75</v>
       </c>
-      <c r="I13" s="17">
+      <c r="I13" s="18">
         <v>52</v>
       </c>
-      <c r="J13" s="13" t="s">
+      <c r="J13" s="20" t="s">
         <v>76</v>
       </c>
       <c r="K13" s="7" t="s">
@@ -2769,7 +2778,7 @@
         <v>79</v>
       </c>
       <c r="D14" s="8"/>
-      <c r="E14" s="17">
+      <c r="E14" s="18">
         <v>33</v>
       </c>
       <c r="F14" s="6" t="s">
@@ -2779,7 +2788,7 @@
         <v>81</v>
       </c>
       <c r="H14" s="8"/>
-      <c r="I14" s="17">
+      <c r="I14" s="18">
         <v>53</v>
       </c>
       <c r="J14" s="6" t="s">
@@ -2794,7 +2803,7 @@
       <c r="A15" s="5">
         <v>14</v>
       </c>
-      <c r="B15" s="6" t="s">
+      <c r="B15" s="17" t="s">
         <v>84</v>
       </c>
       <c r="C15" s="7" t="s">
@@ -2803,47 +2812,51 @@
       <c r="D15" s="8" t="s">
         <v>86</v>
       </c>
-      <c r="E15" s="17">
+      <c r="E15" s="18">
         <v>34</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="20" t="s">
         <v>87</v>
       </c>
       <c r="G15" s="7" t="s">
         <v>88</v>
       </c>
       <c r="H15" s="8"/>
-      <c r="I15" s="17">
+      <c r="I15" s="18">
         <v>54</v>
       </c>
-      <c r="J15" s="13"/>
-      <c r="K15" s="7"/>
+      <c r="J15" s="13" t="s">
+        <v>89</v>
+      </c>
+      <c r="K15" s="7" t="s">
+        <v>90</v>
+      </c>
       <c r="L15" s="8"/>
     </row>
     <row r="16" spans="1:12">
       <c r="A16" s="5">
         <v>15</v>
       </c>
-      <c r="B16" s="6" t="s">
-        <v>89</v>
+      <c r="B16" s="17" t="s">
+        <v>91</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>91</v>
-      </c>
-      <c r="E16" s="17">
+        <v>93</v>
+      </c>
+      <c r="E16" s="18">
         <v>35</v>
       </c>
-      <c r="F16" s="6" t="s">
-        <v>92</v>
+      <c r="F16" s="17" t="s">
+        <v>94</v>
       </c>
       <c r="G16" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="H16" s="8"/>
-      <c r="I16" s="17">
+      <c r="I16" s="18">
         <v>55</v>
       </c>
       <c r="J16" s="13"/>
@@ -2855,25 +2868,25 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>96</v>
-      </c>
-      <c r="E17" s="17">
+        <v>98</v>
+      </c>
+      <c r="E17" s="18">
         <v>36</v>
       </c>
       <c r="F17" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="G17" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="H17" s="8"/>
-      <c r="I17" s="17">
+      <c r="I17" s="18">
         <v>56</v>
       </c>
       <c r="J17" s="13"/>
@@ -2884,26 +2897,26 @@
       <c r="A18" s="5">
         <v>17</v>
       </c>
-      <c r="B18" s="6" t="s">
-        <v>99</v>
+      <c r="B18" s="17" t="s">
+        <v>101</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>101</v>
-      </c>
-      <c r="E18" s="17">
+        <v>103</v>
+      </c>
+      <c r="E18" s="18">
         <v>37</v>
       </c>
       <c r="F18" s="6" t="s">
-        <v>102</v>
+        <v>104</v>
       </c>
       <c r="G18" s="7" t="s">
-        <v>103</v>
+        <v>105</v>
       </c>
       <c r="H18" s="8"/>
-      <c r="I18" s="17">
+      <c r="I18" s="18">
         <v>57</v>
       </c>
       <c r="J18" s="13"/>
@@ -2915,23 +2928,23 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D19" s="8"/>
-      <c r="E19" s="17">
+      <c r="E19" s="18">
         <v>38</v>
       </c>
       <c r="F19" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="G19" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="H19" s="8"/>
-      <c r="I19" s="17">
+      <c r="I19" s="18">
         <v>58</v>
       </c>
       <c r="J19" s="13"/>
@@ -2942,24 +2955,24 @@
       <c r="A20" s="5">
         <v>19</v>
       </c>
-      <c r="B20" s="6" t="s">
-        <v>108</v>
+      <c r="B20" s="17" t="s">
+        <v>110</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D20" s="8"/>
-      <c r="E20" s="17">
+      <c r="E20" s="18">
         <v>39</v>
       </c>
       <c r="F20" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
-        <v>111</v>
+        <v>113</v>
       </c>
       <c r="H20" s="8"/>
-      <c r="I20" s="17">
+      <c r="I20" s="18">
         <v>59</v>
       </c>
       <c r="J20" s="13"/>
@@ -2971,119 +2984,104 @@
         <v>20</v>
       </c>
       <c r="B21" s="10" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C21" s="11" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
       <c r="D21" s="12"/>
-      <c r="E21" s="19">
+      <c r="E21" s="21">
         <v>40</v>
       </c>
       <c r="F21" s="10" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="G21" s="11" t="s">
         <v>38</v>
       </c>
       <c r="H21" s="12"/>
-      <c r="I21" s="19">
+      <c r="I21" s="21">
         <v>60</v>
       </c>
       <c r="J21" s="14"/>
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
     </row>
-    <row r="22" ht="14.25"/>
     <row r="23" spans="1:12">
-      <c r="A23" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B23" s="21"/>
-      <c r="C23" s="21"/>
-      <c r="D23" s="21"/>
-      <c r="E23" s="21"/>
-      <c r="F23" s="21"/>
-      <c r="G23" s="21"/>
-      <c r="H23" s="21"/>
-      <c r="I23" s="21"/>
-      <c r="J23" s="21"/>
-      <c r="K23" s="21"/>
-      <c r="L23" s="27"/>
+      <c r="A23" s="22" t="s">
+        <v>117</v>
+      </c>
+      <c r="B23" s="23"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="23"/>
+      <c r="K23" s="23"/>
+      <c r="L23" s="29"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="22"/>
-      <c r="B24" s="23"/>
-      <c r="C24" s="23"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="23"/>
-      <c r="F24" s="23"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="23"/>
-      <c r="I24" s="23"/>
-      <c r="J24" s="23"/>
-      <c r="K24" s="23"/>
-      <c r="L24" s="28"/>
+      <c r="A24" s="24"/>
+      <c r="B24" s="25"/>
+      <c r="C24" s="25"/>
+      <c r="D24" s="25"/>
+      <c r="E24" s="25"/>
+      <c r="F24" s="25"/>
+      <c r="G24" s="25"/>
+      <c r="H24" s="25"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="25"/>
+      <c r="K24" s="25"/>
+      <c r="L24" s="30"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="22"/>
-      <c r="B25" s="23"/>
-      <c r="C25" s="23"/>
-      <c r="D25" s="23"/>
-      <c r="E25" s="23"/>
-      <c r="F25" s="23"/>
-      <c r="G25" s="23"/>
-      <c r="H25" s="23"/>
-      <c r="I25" s="23"/>
-      <c r="J25" s="23"/>
-      <c r="K25" s="23"/>
-      <c r="L25" s="28"/>
+      <c r="A25" s="24"/>
+      <c r="B25" s="25"/>
+      <c r="C25" s="25"/>
+      <c r="D25" s="25"/>
+      <c r="E25" s="25"/>
+      <c r="F25" s="25"/>
+      <c r="G25" s="25"/>
+      <c r="H25" s="25"/>
+      <c r="I25" s="25"/>
+      <c r="J25" s="25"/>
+      <c r="K25" s="25"/>
+      <c r="L25" s="30"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="22"/>
-      <c r="B26" s="23"/>
-      <c r="C26" s="23"/>
-      <c r="D26" s="23"/>
-      <c r="E26" s="23"/>
-      <c r="F26" s="23"/>
-      <c r="G26" s="23"/>
-      <c r="H26" s="23"/>
-      <c r="I26" s="23"/>
-      <c r="J26" s="23"/>
-      <c r="K26" s="23"/>
-      <c r="L26" s="28"/>
+      <c r="A26" s="24"/>
+      <c r="B26" s="25"/>
+      <c r="C26" s="25"/>
+      <c r="D26" s="25"/>
+      <c r="E26" s="25"/>
+      <c r="F26" s="25"/>
+      <c r="G26" s="25"/>
+      <c r="H26" s="25"/>
+      <c r="I26" s="25"/>
+      <c r="J26" s="25"/>
+      <c r="K26" s="25"/>
+      <c r="L26" s="30"/>
     </row>
     <row r="27" spans="1:12">
-      <c r="A27" s="22"/>
-      <c r="B27" s="23"/>
-      <c r="C27" s="23"/>
-      <c r="D27" s="23"/>
-      <c r="E27" s="23"/>
-      <c r="F27" s="23"/>
-      <c r="G27" s="23"/>
-      <c r="H27" s="23"/>
-      <c r="I27" s="23"/>
-      <c r="J27" s="23"/>
-      <c r="K27" s="23"/>
-      <c r="L27" s="28"/>
-    </row>
-    <row r="28" ht="14.25" spans="1:12">
-      <c r="A28" s="24"/>
-      <c r="B28" s="25"/>
-      <c r="C28" s="25"/>
-      <c r="D28" s="25"/>
-      <c r="E28" s="25"/>
-      <c r="F28" s="25"/>
-      <c r="G28" s="25"/>
-      <c r="H28" s="25"/>
-      <c r="I28" s="25"/>
-      <c r="J28" s="25"/>
-      <c r="K28" s="25"/>
-      <c r="L28" s="29"/>
+      <c r="A27" s="26"/>
+      <c r="B27" s="27"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="27"/>
+      <c r="F27" s="27"/>
+      <c r="G27" s="27"/>
+      <c r="H27" s="27"/>
+      <c r="I27" s="27"/>
+      <c r="J27" s="27"/>
+      <c r="K27" s="27"/>
+      <c r="L27" s="31"/>
     </row>
   </sheetData>
   <mergeCells count="1">
-    <mergeCell ref="A23:L28"/>
+    <mergeCell ref="A23:L27"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
@@ -3135,7 +3133,7 @@
         <v>48</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3149,7 +3147,7 @@
         <v>5</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3163,7 +3161,7 @@
         <v>17</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3174,10 +3172,10 @@
         <v>56</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3185,13 +3183,13 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>123</v>
+        <v>125</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3205,7 +3203,7 @@
         <v>40</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>124</v>
+        <v>126</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3213,13 +3211,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>125</v>
+        <v>127</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3233,7 +3231,7 @@
         <v>52</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3247,7 +3245,7 @@
         <v>11</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3261,7 +3259,7 @@
         <v>7</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>130</v>
+        <v>132</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3269,13 +3267,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>131</v>
+        <v>133</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>132</v>
+        <v>134</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3283,13 +3281,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3297,13 +3295,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>137</v>
+        <v>139</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>138</v>
+        <v>140</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>139</v>
+        <v>141</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3311,13 +3309,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3328,10 +3326,10 @@
         <v>12</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3345,7 +3343,7 @@
         <v>19</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3356,10 +3354,10 @@
         <v>24</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
     </row>
     <row r="19" spans="1:4">
@@ -3373,7 +3371,7 @@
         <v>31</v>
       </c>
       <c r="D19" s="8" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="20" spans="1:4">
@@ -3384,10 +3382,10 @@
         <v>69</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="D20" s="8" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="21" spans="1:4">
@@ -3395,13 +3393,13 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
       <c r="D21" s="8" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
     </row>
     <row r="22" ht="14.25" spans="1:4">
@@ -3415,7 +3413,7 @@
         <v>29</v>
       </c>
       <c r="D22" s="12" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
   </sheetData>
@@ -3469,7 +3467,7 @@
         <v>38</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3483,7 +3481,7 @@
         <v>44</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>154</v>
+        <v>156</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -3491,13 +3489,13 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>155</v>
+        <v>157</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>156</v>
+        <v>158</v>
       </c>
       <c r="D4" s="8" t="s">
-        <v>157</v>
+        <v>159</v>
       </c>
     </row>
     <row r="5" spans="1:4">
@@ -3511,7 +3509,7 @@
         <v>50</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>158</v>
+        <v>160</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3525,7 +3523,7 @@
         <v>33</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>159</v>
+        <v>161</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3547,13 +3545,13 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>160</v>
+        <v>162</v>
       </c>
       <c r="C8" s="7" t="s">
         <v>23</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>161</v>
+        <v>163</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3567,7 +3565,7 @@
         <v>15</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>162</v>
+        <v>164</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3581,7 +3579,7 @@
         <v>35</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>163</v>
+        <v>165</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3595,7 +3593,7 @@
         <v>42</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3609,7 +3607,7 @@
         <v>54</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -3617,13 +3615,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -3631,13 +3629,13 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -3645,13 +3643,13 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>170</v>
+        <v>172</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -3659,13 +3657,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -3679,7 +3677,7 @@
         <v>55</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -3687,13 +3685,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
@@ -3701,13 +3699,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="C19" s="11" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="D19" s="12" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
     </row>
   </sheetData>
@@ -3755,13 +3753,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -3769,10 +3767,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -3781,10 +3779,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -3793,10 +3791,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -3805,10 +3803,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -3817,10 +3815,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="10" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="C7" s="11" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="D7" s="12"/>
     </row>
@@ -3895,10 +3893,10 @@
         <v>67</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="D5" s="8" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
     </row>
     <row r="6" spans="1:4">
@@ -3912,7 +3910,7 @@
         <v>74</v>
       </c>
       <c r="D6" s="8" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="7" spans="1:4">
@@ -3926,7 +3924,7 @@
         <v>81</v>
       </c>
       <c r="D7" s="8" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
     </row>
     <row r="8" spans="1:4">
@@ -3940,7 +3938,7 @@
         <v>66</v>
       </c>
       <c r="D8" s="8" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
     </row>
     <row r="9" spans="1:4">
@@ -3954,7 +3952,7 @@
         <v>72</v>
       </c>
       <c r="D9" s="8" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
     </row>
     <row r="10" spans="1:4">
@@ -3962,13 +3960,13 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="D10" s="8" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
     </row>
     <row r="11" spans="1:4">
@@ -3976,13 +3974,13 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
     </row>
     <row r="12" spans="1:4">
@@ -3990,13 +3988,13 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
     </row>
     <row r="13" spans="1:4">
@@ -4004,13 +4002,13 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="D13" s="8" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
     </row>
     <row r="14" spans="1:4">
@@ -4024,7 +4022,7 @@
         <v>88</v>
       </c>
       <c r="D14" s="8" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
     </row>
     <row r="15" spans="1:4">
@@ -4038,7 +4036,7 @@
         <v>61</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
     </row>
     <row r="16" spans="1:4">
@@ -4046,13 +4044,13 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="D16" s="8" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
     </row>
     <row r="17" spans="1:4">
@@ -4060,13 +4058,13 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="D17" s="8" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
     </row>
     <row r="18" spans="1:4">
@@ -4074,13 +4072,13 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="D18" s="8" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
     </row>
     <row r="19" ht="14.25" spans="1:4">
@@ -4088,13 +4086,13 @@
         <v>18</v>
       </c>
       <c r="B19" s="10" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="C19" s="11" t="s">
+        <v>221</v>
+      </c>
+      <c r="D19" s="12" t="s">
         <v>219</v>
-      </c>
-      <c r="D19" s="12" t="s">
-        <v>217</v>
       </c>
     </row>
   </sheetData>
@@ -4141,13 +4139,13 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D2" s="8" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
     </row>
     <row r="3" spans="1:4">
@@ -4155,13 +4153,13 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D3" s="8" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:4">
@@ -4169,10 +4167,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4181,10 +4179,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -4193,10 +4191,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -4205,10 +4203,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -4217,10 +4215,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -4229,10 +4227,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -4241,10 +4239,10 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="C10" s="7" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="D10" s="8"/>
     </row>
@@ -4253,10 +4251,10 @@
         <v>10</v>
       </c>
       <c r="B11" s="6" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="C11" s="7" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="D11" s="8"/>
     </row>
@@ -4265,10 +4263,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -4277,10 +4275,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="D13" s="8"/>
     </row>
@@ -4289,10 +4287,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="D14" s="8"/>
     </row>
@@ -4301,10 +4299,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>107</v>
+        <v>109</v>
       </c>
       <c r="D15" s="8"/>
     </row>
@@ -4313,10 +4311,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="D16" s="8"/>
     </row>
@@ -4325,10 +4323,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="6" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="C17" s="7" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="D17" s="8"/>
     </row>
@@ -4337,10 +4335,10 @@
         <v>17</v>
       </c>
       <c r="B18" s="6" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="C18" s="7" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="D18" s="8"/>
     </row>
@@ -4349,10 +4347,10 @@
         <v>18</v>
       </c>
       <c r="B19" s="6" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="C19" s="7" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="D19" s="8"/>
     </row>
@@ -4361,10 +4359,10 @@
         <v>19</v>
       </c>
       <c r="B20" s="6" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="C20" s="7" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="D20" s="8"/>
     </row>
@@ -4373,10 +4371,10 @@
         <v>20</v>
       </c>
       <c r="B21" s="6" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="C21" s="7" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="D21" s="8"/>
     </row>
@@ -4385,10 +4383,10 @@
         <v>21</v>
       </c>
       <c r="B22" s="6" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="C22" s="7" t="s">
-        <v>257</v>
+        <v>259</v>
       </c>
       <c r="D22" s="8"/>
     </row>
@@ -4397,10 +4395,10 @@
         <v>22</v>
       </c>
       <c r="B23" s="13" t="s">
-        <v>258</v>
+        <v>260</v>
       </c>
       <c r="C23" s="7" t="s">
-        <v>259</v>
+        <v>261</v>
       </c>
       <c r="D23" s="8"/>
     </row>
@@ -4409,10 +4407,10 @@
         <v>23</v>
       </c>
       <c r="B24" s="13" t="s">
-        <v>260</v>
+        <v>262</v>
       </c>
       <c r="C24" s="7" t="s">
-        <v>261</v>
+        <v>263</v>
       </c>
       <c r="D24" s="8"/>
     </row>
@@ -4421,10 +4419,10 @@
         <v>24</v>
       </c>
       <c r="B25" s="13" t="s">
-        <v>262</v>
+        <v>264</v>
       </c>
       <c r="C25" s="7" t="s">
-        <v>263</v>
+        <v>265</v>
       </c>
       <c r="D25" s="8"/>
     </row>
@@ -4436,7 +4434,7 @@
         <v>63</v>
       </c>
       <c r="C26" s="7" t="s">
-        <v>264</v>
+        <v>266</v>
       </c>
       <c r="D26" s="8"/>
     </row>
@@ -4445,10 +4443,10 @@
         <v>26</v>
       </c>
       <c r="B27" s="13" t="s">
-        <v>265</v>
+        <v>267</v>
       </c>
       <c r="C27" s="7" t="s">
-        <v>266</v>
+        <v>268</v>
       </c>
       <c r="D27" s="8"/>
     </row>
@@ -4457,10 +4455,10 @@
         <v>27</v>
       </c>
       <c r="B28" s="13" t="s">
-        <v>267</v>
+        <v>269</v>
       </c>
       <c r="C28" s="7" t="s">
-        <v>268</v>
+        <v>270</v>
       </c>
       <c r="D28" s="8"/>
     </row>
@@ -4469,10 +4467,10 @@
         <v>28</v>
       </c>
       <c r="B29" s="13" t="s">
-        <v>269</v>
+        <v>271</v>
       </c>
       <c r="C29" s="7" t="s">
-        <v>270</v>
+        <v>272</v>
       </c>
       <c r="D29" s="8"/>
     </row>
@@ -4481,10 +4479,10 @@
         <v>29</v>
       </c>
       <c r="B30" s="13" t="s">
-        <v>271</v>
+        <v>273</v>
       </c>
       <c r="C30" s="7" t="s">
-        <v>272</v>
+        <v>274</v>
       </c>
       <c r="D30" s="8"/>
     </row>
@@ -4493,10 +4491,10 @@
         <v>30</v>
       </c>
       <c r="B31" s="13" t="s">
-        <v>273</v>
+        <v>275</v>
       </c>
       <c r="C31" s="7" t="s">
-        <v>274</v>
+        <v>276</v>
       </c>
       <c r="D31" s="8"/>
     </row>
@@ -4505,10 +4503,10 @@
         <v>31</v>
       </c>
       <c r="B32" s="14" t="s">
-        <v>275</v>
+        <v>277</v>
       </c>
       <c r="C32" s="11" t="s">
-        <v>276</v>
+        <v>278</v>
       </c>
       <c r="D32" s="12"/>
     </row>
@@ -4556,10 +4554,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>104</v>
+        <v>106</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
       <c r="D2" s="8"/>
     </row>
@@ -4568,10 +4566,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -4580,10 +4578,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>277</v>
+        <v>279</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>278</v>
+        <v>280</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4592,10 +4590,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>279</v>
+        <v>281</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>280</v>
+        <v>282</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -4604,10 +4602,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>281</v>
+        <v>283</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>282</v>
+        <v>284</v>
       </c>
       <c r="D6" s="8"/>
     </row>
@@ -4616,10 +4614,10 @@
         <v>6</v>
       </c>
       <c r="B7" s="6" t="s">
-        <v>110</v>
+        <v>112</v>
       </c>
       <c r="C7" s="7" t="s">
-        <v>283</v>
+        <v>285</v>
       </c>
       <c r="D7" s="8"/>
     </row>
@@ -4628,10 +4626,10 @@
         <v>7</v>
       </c>
       <c r="B8" s="6" t="s">
-        <v>108</v>
+        <v>110</v>
       </c>
       <c r="C8" s="7" t="s">
-        <v>109</v>
+        <v>111</v>
       </c>
       <c r="D8" s="8"/>
     </row>
@@ -4640,10 +4638,10 @@
         <v>8</v>
       </c>
       <c r="B9" s="6" t="s">
-        <v>284</v>
+        <v>286</v>
       </c>
       <c r="C9" s="7" t="s">
-        <v>285</v>
+        <v>287</v>
       </c>
       <c r="D9" s="8"/>
     </row>
@@ -4652,7 +4650,7 @@
         <v>9</v>
       </c>
       <c r="B10" s="6" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="C10" s="7" t="s">
         <v>38</v>
@@ -4676,10 +4674,10 @@
         <v>11</v>
       </c>
       <c r="B12" s="6" t="s">
-        <v>286</v>
+        <v>288</v>
       </c>
       <c r="C12" s="7" t="s">
-        <v>287</v>
+        <v>289</v>
       </c>
       <c r="D12" s="8"/>
     </row>
@@ -4688,10 +4686,10 @@
         <v>12</v>
       </c>
       <c r="B13" s="6" t="s">
-        <v>288</v>
+        <v>290</v>
       </c>
       <c r="C13" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D13" s="8"/>
     </row>
@@ -4700,10 +4698,10 @@
         <v>13</v>
       </c>
       <c r="B14" s="6" t="s">
-        <v>290</v>
+        <v>292</v>
       </c>
       <c r="C14" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D14" s="8"/>
     </row>
@@ -4712,10 +4710,10 @@
         <v>14</v>
       </c>
       <c r="B15" s="6" t="s">
-        <v>112</v>
+        <v>114</v>
       </c>
       <c r="C15" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D15" s="8"/>
     </row>
@@ -4724,10 +4722,10 @@
         <v>15</v>
       </c>
       <c r="B16" s="6" t="s">
-        <v>293</v>
+        <v>295</v>
       </c>
       <c r="C16" s="7" t="s">
-        <v>294</v>
+        <v>296</v>
       </c>
       <c r="D16" s="8"/>
     </row>
@@ -4736,10 +4734,10 @@
         <v>16</v>
       </c>
       <c r="B17" s="10" t="s">
-        <v>295</v>
+        <v>297</v>
       </c>
       <c r="C17" s="11" t="s">
-        <v>296</v>
+        <v>298</v>
       </c>
       <c r="D17" s="12"/>
     </row>
@@ -4781,10 +4779,10 @@
         <v>1</v>
       </c>
       <c r="B2" s="6" t="s">
-        <v>297</v>
+        <v>299</v>
       </c>
       <c r="C2" s="7" t="s">
-        <v>298</v>
+        <v>300</v>
       </c>
       <c r="D2" s="8"/>
     </row>
@@ -4793,10 +4791,10 @@
         <v>2</v>
       </c>
       <c r="B3" s="6" t="s">
-        <v>299</v>
+        <v>301</v>
       </c>
       <c r="C3" s="7" t="s">
-        <v>300</v>
+        <v>302</v>
       </c>
       <c r="D3" s="8"/>
     </row>
@@ -4805,10 +4803,10 @@
         <v>3</v>
       </c>
       <c r="B4" s="6" t="s">
-        <v>301</v>
+        <v>303</v>
       </c>
       <c r="C4" s="7" t="s">
-        <v>289</v>
+        <v>291</v>
       </c>
       <c r="D4" s="8"/>
     </row>
@@ -4817,10 +4815,10 @@
         <v>4</v>
       </c>
       <c r="B5" s="6" t="s">
-        <v>302</v>
+        <v>304</v>
       </c>
       <c r="C5" s="7" t="s">
-        <v>291</v>
+        <v>293</v>
       </c>
       <c r="D5" s="8"/>
     </row>
@@ -4829,10 +4827,10 @@
         <v>5</v>
       </c>
       <c r="B6" s="6" t="s">
-        <v>303</v>
+        <v>305</v>
       </c>
       <c r="C6" s="7" t="s">
-        <v>292</v>
+        <v>294</v>
       </c>
       <c r="D6" s="8"/>
     </row>

--- a/我的文档/（实用）CAD常用快捷键.xlsx
+++ b/我的文档/（实用）CAD常用快捷键.xlsx
@@ -2320,7 +2320,7 @@
     <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="D33" sqref="D33"/>
+      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>

--- a/我的文档/（实用）CAD常用快捷键.xlsx
+++ b/我的文档/（实用）CAD常用快捷键.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="3" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView windowWidth="28800" windowHeight="12540"/>
+    <workbookView windowWidth="28800" windowHeight="12540" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="CAD常用快捷键" sheetId="1" r:id="rId1"/>
@@ -376,6 +376,14 @@
   </si>
   <si>
     <r>
+      <rPr>
+        <b/>
+        <sz val="11"/>
+        <color rgb="FFFF0000"/>
+        <rFont val="宋体"/>
+        <charset val="134"/>
+        <scheme val="minor"/>
+      </rPr>
       <t>注意：</t>
     </r>
     <r>
@@ -993,7 +1001,112 @@
     </font>
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF3F3F76"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="0"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C6500"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF800080"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <u/>
+      <sz val="11"/>
+      <color rgb="FF0000FF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
       <color rgb="FFFF0000"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="18"/>
+      <color theme="3"/>
+      <name val="宋体"/>
+      <charset val="134"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color rgb="FFFFFFFF"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <i/>
+      <sz val="11"/>
+      <color rgb="FF7F7F7F"/>
+      <name val="宋体"/>
+      <charset val="0"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FFFA7D00"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1008,10 +1121,10 @@
     </font>
     <font>
       <b/>
-      <sz val="18"/>
-      <color theme="3"/>
+      <sz val="11"/>
+      <color theme="1"/>
       <name val="宋体"/>
-      <charset val="134"/>
+      <charset val="0"/>
       <scheme val="minor"/>
     </font>
     <font>
@@ -1023,114 +1136,9 @@
       <scheme val="minor"/>
     </font>
     <font>
-      <sz val="11"/>
-      <color theme="1"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="3"/>
-      <name val="宋体"/>
-      <charset val="134"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C0006"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF9C6500"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color theme="0"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF3F3F76"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FF006100"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF0000FF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <i/>
-      <sz val="11"/>
-      <color rgb="FF7F7F7F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <u/>
-      <sz val="11"/>
-      <color rgb="FF800080"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
       <b/>
       <sz val="11"/>
       <color rgb="FF3F3F3F"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFA7D00"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color rgb="FFFFFFFF"/>
-      <name val="宋体"/>
-      <charset val="0"/>
-      <scheme val="minor"/>
-    </font>
-    <font>
-      <b/>
-      <sz val="11"/>
-      <color theme="1"/>
       <name val="宋体"/>
       <charset val="0"/>
       <scheme val="minor"/>
@@ -1157,13 +1165,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFFFCC"/>
+        <fgColor theme="8" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.599993896298105"/>
+        <fgColor theme="5" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1181,31 +1189,13 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor rgb="FFFFEB9C"/>
+        <fgColor theme="5" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="6" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFFCC99"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="4" tint="0.799981688894314"/>
+        <fgColor theme="8" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1223,13 +1213,49 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor rgb="FFFFCC99"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFEB9C"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="5" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.399975585192419"/>
+        <fgColor theme="6" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFFCC"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFF2F2F2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFA5A5A5"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1241,7 +1267,43 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.399975585192419"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.799981688894314"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
         <fgColor theme="7"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="6"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1253,55 +1315,25 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFF2F2F2"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.799981688894314"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="5" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFA5A5A5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
         <fgColor theme="7" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="9" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.799981688894314"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="6"/>
+        <fgColor theme="7" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.799981688894314"/>
+        <fgColor theme="4" tint="0.599993896298105"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1313,31 +1345,7 @@
     </fill>
     <fill>
       <patternFill patternType="solid">
-        <fgColor theme="7" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.599993896298105"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="8" tint="0.399975585192419"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="9"/>
+        <fgColor theme="9" tint="0.399975585192419"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -1614,30 +1622,6 @@
       <top/>
       <bottom style="medium">
         <color auto="1"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left style="thin">
-        <color rgb="FFB2B2B2"/>
-      </left>
-      <right style="thin">
-        <color rgb="FFB2B2B2"/>
-      </right>
-      <top style="thin">
-        <color rgb="FFB2B2B2"/>
-      </top>
-      <bottom style="thin">
-        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1657,35 +1641,17 @@
       <diagonal/>
     </border>
     <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="medium">
-        <color theme="4" tint="0.499984740745262"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
-      <left/>
-      <right/>
-      <top/>
-      <bottom style="double">
-        <color rgb="FFFF8001"/>
-      </bottom>
-      <diagonal/>
-    </border>
-    <border>
       <left style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </left>
       <right style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </right>
       <top style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </top>
       <bottom style="thin">
-        <color rgb="FF3F3F3F"/>
+        <color rgb="FFB2B2B2"/>
       </bottom>
       <diagonal/>
     </border>
@@ -1707,6 +1673,24 @@
     <border>
       <left/>
       <right/>
+      <top/>
+      <bottom style="double">
+        <color rgb="FFFF8001"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left/>
+      <right/>
       <top style="thin">
         <color theme="4"/>
       </top>
@@ -1715,6 +1699,30 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right/>
+      <top/>
+      <bottom style="medium">
+        <color theme="4" tint="0.499984740745262"/>
+      </bottom>
+      <diagonal/>
+    </border>
+    <border>
+      <left style="thin">
+        <color rgb="FF3F3F3F"/>
+      </left>
+      <right style="thin">
+        <color rgb="FF3F3F3F"/>
+      </right>
+      <top style="thin">
+        <color rgb="FF3F3F3F"/>
+      </top>
+      <bottom style="thin">
+        <color rgb="FF3F3F3F"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="49">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0">
@@ -1723,10 +1731,10 @@
     <xf numFmtId="42" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="11" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="11" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="6" fillId="12" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="44" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
@@ -1735,137 +1743,137 @@
     <xf numFmtId="41" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="6" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="4" fillId="7" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="43" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="7" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="10" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="17" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="14" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="9" fontId="0" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="16" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="4" borderId="23" applyNumberFormat="0" applyFont="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="15" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="15" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="22" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="17" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="21" borderId="27" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="19" fillId="21" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="20" fillId="24" borderId="28" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="18" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="20" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="21" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="11" fillId="0" borderId="28" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="21" fillId="18" borderId="29" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="18" borderId="22" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="15" fillId="19" borderId="24" applyNumberFormat="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="24" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="17" fillId="0" borderId="25" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="19" fillId="0" borderId="27" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="10" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="14" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="26" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="20" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="17" fillId="0" borderId="26" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="21" fillId="0" borderId="29" applyNumberFormat="0" applyFill="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="13" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="10" fillId="8" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="28" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="19" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="22" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="23" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="11" fillId="27" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="18" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="4" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="13" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="25" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="30" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="31" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="32" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="29" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="11" fillId="16" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="0" fontId="3" fillId="33" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="34" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="32">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -1931,6 +1939,9 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1">
       <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="13" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
@@ -2317,10 +2328,10 @@
   <sheetPr/>
   <dimension ref="A1:L27"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="N17" sqref="N17"/>
+      <selection pane="bottomLeft" activeCell="D19" sqref="D19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5"/>
@@ -2370,7 +2381,7 @@
       <c r="J1" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="K1" s="28" t="s">
+      <c r="K1" s="29" t="s">
         <v>2</v>
       </c>
       <c r="L1" s="4" t="s">
@@ -2401,7 +2412,7 @@
       <c r="I2" s="18">
         <v>41</v>
       </c>
-      <c r="J2" s="6" t="s">
+      <c r="J2" s="17" t="s">
         <v>8</v>
       </c>
       <c r="K2" s="7" t="s">
@@ -2965,7 +2976,7 @@
       <c r="E20" s="18">
         <v>39</v>
       </c>
-      <c r="F20" s="6" t="s">
+      <c r="F20" s="17" t="s">
         <v>112</v>
       </c>
       <c r="G20" s="7" t="s">
@@ -2993,7 +3004,7 @@
       <c r="E21" s="21">
         <v>40</v>
       </c>
-      <c r="F21" s="10" t="s">
+      <c r="F21" s="22" t="s">
         <v>116</v>
       </c>
       <c r="G21" s="11" t="s">
@@ -3007,77 +3018,78 @@
       <c r="K21" s="11"/>
       <c r="L21" s="12"/>
     </row>
+    <row r="22" ht="14.25"/>
     <row r="23" spans="1:12">
-      <c r="A23" s="22" t="s">
+      <c r="A23" s="23" t="s">
         <v>117</v>
       </c>
-      <c r="B23" s="23"/>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="23"/>
-      <c r="K23" s="23"/>
-      <c r="L23" s="29"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="24"/>
+      <c r="D23" s="24"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="24"/>
+      <c r="L23" s="30"/>
     </row>
     <row r="24" spans="1:12">
-      <c r="A24" s="24"/>
-      <c r="B24" s="25"/>
-      <c r="C24" s="25"/>
-      <c r="D24" s="25"/>
-      <c r="E24" s="25"/>
-      <c r="F24" s="25"/>
-      <c r="G24" s="25"/>
-      <c r="H24" s="25"/>
-      <c r="I24" s="25"/>
-      <c r="J24" s="25"/>
-      <c r="K24" s="25"/>
-      <c r="L24" s="30"/>
+      <c r="A24" s="25"/>
+      <c r="B24" s="26"/>
+      <c r="C24" s="26"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="26"/>
+      <c r="F24" s="26"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="26"/>
+      <c r="I24" s="26"/>
+      <c r="J24" s="26"/>
+      <c r="K24" s="26"/>
+      <c r="L24" s="31"/>
     </row>
     <row r="25" spans="1:12">
-      <c r="A25" s="24"/>
-      <c r="B25" s="25"/>
-      <c r="C25" s="25"/>
-      <c r="D25" s="25"/>
-      <c r="E25" s="25"/>
-      <c r="F25" s="25"/>
-      <c r="G25" s="25"/>
-      <c r="H25" s="25"/>
-      <c r="I25" s="25"/>
-      <c r="J25" s="25"/>
-      <c r="K25" s="25"/>
-      <c r="L25" s="30"/>
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="26"/>
+      <c r="D25" s="26"/>
+      <c r="E25" s="26"/>
+      <c r="F25" s="26"/>
+      <c r="G25" s="26"/>
+      <c r="H25" s="26"/>
+      <c r="I25" s="26"/>
+      <c r="J25" s="26"/>
+      <c r="K25" s="26"/>
+      <c r="L25" s="31"/>
     </row>
     <row r="26" spans="1:12">
-      <c r="A26" s="24"/>
-      <c r="B26" s="25"/>
-      <c r="C26" s="25"/>
-      <c r="D26" s="25"/>
-      <c r="E26" s="25"/>
-      <c r="F26" s="25"/>
-      <c r="G26" s="25"/>
-      <c r="H26" s="25"/>
-      <c r="I26" s="25"/>
-      <c r="J26" s="25"/>
-      <c r="K26" s="25"/>
-      <c r="L26" s="30"/>
-    </row>
-    <row r="27" spans="1:12">
-      <c r="A27" s="26"/>
-      <c r="B27" s="27"/>
-      <c r="C27" s="27"/>
-      <c r="D27" s="27"/>
-      <c r="E27" s="27"/>
-      <c r="F27" s="27"/>
-      <c r="G27" s="27"/>
-      <c r="H27" s="27"/>
-      <c r="I27" s="27"/>
-      <c r="J27" s="27"/>
-      <c r="K27" s="27"/>
-      <c r="L27" s="31"/>
+      <c r="A26" s="25"/>
+      <c r="B26" s="26"/>
+      <c r="C26" s="26"/>
+      <c r="D26" s="26"/>
+      <c r="E26" s="26"/>
+      <c r="F26" s="26"/>
+      <c r="G26" s="26"/>
+      <c r="H26" s="26"/>
+      <c r="I26" s="26"/>
+      <c r="J26" s="26"/>
+      <c r="K26" s="26"/>
+      <c r="L26" s="31"/>
+    </row>
+    <row r="27" ht="14.25" spans="1:12">
+      <c r="A27" s="27"/>
+      <c r="B27" s="28"/>
+      <c r="C27" s="28"/>
+      <c r="D27" s="28"/>
+      <c r="E27" s="28"/>
+      <c r="F27" s="28"/>
+      <c r="G27" s="28"/>
+      <c r="H27" s="28"/>
+      <c r="I27" s="28"/>
+      <c r="J27" s="28"/>
+      <c r="K27" s="28"/>
+      <c r="L27" s="32"/>
     </row>
   </sheetData>
   <mergeCells count="1">
@@ -4521,10 +4533,10 @@
   <sheetPr/>
   <dimension ref="A1:D17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
       <selection/>
-      <selection pane="bottomLeft" activeCell="A1" sqref="A1:D17"/>
+      <selection pane="bottomLeft" activeCell="F2" sqref="F2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="3"/>
